--- a/Selenium/target/test-classes/ApachePOIandPropertyfiles/Demo1.xlsx
+++ b/Selenium/target/test-classes/ApachePOIandPropertyfiles/Demo1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView windowWidth="13700" windowHeight="5550"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -42,18 +43,6 @@
     <t>Test@1234</t>
   </si>
   <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Rogers</t>
-  </si>
-  <si>
-    <t>steve@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@4321</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -63,14 +52,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,19 +72,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,21 +421,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -126,10 +734,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -287,7 +895,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -296,13 +904,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +920,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +929,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +938,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,12 +948,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -376,7 +984,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -395,28 +1003,28 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -444,47 +1052,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="D3"/>
+    <hyperlink ref="C2" r:id="rId1" display="tony@gmail.com "/>
+    <hyperlink ref="D2" r:id="rId2" display="Test@1234"/>
+    <hyperlink ref="C3" r:id="rId3" display="Testing"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>